--- a/plan/test/結合テスト/結合テスト仕様書-FP008購入(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP008購入(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A094FA9-1678-48D4-8035-32BCBD0680E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9438B-FEA4-487A-9E35-DC19DE635176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,13 +466,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログイン」を押下</t>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>フロントエンドの「トップ」を押下</t>
     <rPh sb="14" eb="16">
       <t>オウカ</t>
@@ -841,6 +834,13 @@
     <t>「ログアウト」リンクが表示されていること</t>
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」を押下</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1222,162 +1222,162 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1732,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:L20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1749,25 +1749,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1782,23 +1782,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1811,50 +1811,50 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="91.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="49.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1863,20 +1863,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1886,174 +1886,174 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="15"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="15"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="15"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="15"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
     </row>
     <row r="10" spans="1:17" ht="44" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
       <c r="M10" s="15"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="30"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+        <v>65</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="15"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="30"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="15"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2065,18 +2065,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="15"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2088,18 +2088,18 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="15"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2111,18 +2111,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="15"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2134,112 +2134,112 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="15"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="56"/>
     </row>
     <row r="17" spans="1:17" ht="11">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="15"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="56"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="15"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="30"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="56"/>
     </row>
     <row r="19" spans="1:17" ht="11">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="15"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="30"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="56"/>
     </row>
     <row r="20" spans="1:17" ht="11.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
+        <v>79</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="15"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2251,20 +2251,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="15"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2276,18 +2276,18 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="15"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2299,18 +2299,18 @@
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="15"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2322,18 +2322,18 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
       <c r="M24" s="15"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2345,18 +2345,18 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="15"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2368,18 +2368,18 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
       <c r="M26" s="15"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2391,18 +2391,18 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="15"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2414,18 +2414,18 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="15"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2437,18 +2437,18 @@
         <v>24</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
       <c r="M29" s="15"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2460,18 +2460,18 @@
         <v>25</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="21"/>
       <c r="M30" s="15"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2483,18 +2483,18 @@
         <v>26</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="21"/>
       <c r="M31" s="15"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2506,18 +2506,18 @@
         <v>27</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
       <c r="M32" s="15"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -2529,22 +2529,22 @@
         <v>28</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="23"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
       <c r="M33" s="15"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2555,73 +2555,73 @@
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="28" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="21"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
       <c r="M34" s="15"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="21"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="71"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="51"/>
+      <c r="C35" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
       <c r="M35" s="15"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
     </row>
     <row r="36" spans="1:17" ht="11" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
       <c r="M36" s="15"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2632,21 +2632,21 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="51"/>
+      <c r="C37" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
       <c r="M37" s="15"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2657,21 +2657,21 @@
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="28" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="21"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="71"/>
       <c r="M38" s="15"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2682,21 +2682,21 @@
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24" t="s">
+      <c r="B39" s="51"/>
+      <c r="C39" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
       <c r="M39" s="15"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2707,21 +2707,21 @@
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24" t="s">
+      <c r="B40" s="51"/>
+      <c r="C40" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
       <c r="M40" s="15"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2732,21 +2732,21 @@
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24" t="s">
+      <c r="B41" s="51"/>
+      <c r="C41" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
       <c r="M41" s="15"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2757,21 +2757,21 @@
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24" t="s">
+      <c r="B42" s="51"/>
+      <c r="C42" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
       <c r="M42" s="15"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -2782,21 +2782,21 @@
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
       <c r="M43" s="15"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -2807,21 +2807,21 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="51"/>
+      <c r="C44" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
       <c r="M44" s="15"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -2832,21 +2832,21 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="24" t="s">
+      <c r="B45" s="51"/>
+      <c r="C45" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
       <c r="M45" s="15"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -2857,21 +2857,21 @@
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
       <c r="M46" s="15"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -2882,21 +2882,21 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
       <c r="M47" s="15"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -2907,21 +2907,21 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="22" t="s">
+      <c r="B48" s="51"/>
+      <c r="C48" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="23"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="21"/>
       <c r="M48" s="15"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -2932,21 +2932,21 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="23"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="23"/>
+        <v>74</v>
+      </c>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="21"/>
       <c r="M49" s="15"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2994,24 +2994,64 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C21:G32"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="B34:B49"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C16:G20"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C8:G15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -3028,64 +3068,24 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C16:G20"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C8:G15"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B34:B49"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C21:G32"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP008購入(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP008購入(入力)画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9438B-FEA4-487A-9E35-DC19DE635176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB9DFE-76E0-4021-92F3-E81265E7F292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
   <si>
     <t>作成者</t>
   </si>
@@ -207,10 +207,6 @@
   </si>
   <si>
     <t>footer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>body</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -842,6 +838,27 @@
     <rPh sb="8" eb="10">
       <t>オウカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティOK</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1162,7 +1179,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,11 +1239,38 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1245,6 +1289,78 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1254,131 +1370,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1730,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:G38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1749,30 +1757,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -1782,23 +1790,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1808,53 +1816,55 @@
       <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="91.5" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="49.5" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1863,20 +1873,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1886,1177 +1896,1375 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="C8" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-    </row>
-    <row r="9" spans="1:17" ht="11">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30"/>
+    </row>
+    <row r="9" spans="1:17" ht="44" customHeight="1">
       <c r="A9" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="19" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
-    </row>
-    <row r="10" spans="1:17" ht="44" customHeight="1">
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
+    </row>
+    <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="57" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="11" customHeight="1">
       <c r="A13" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
       <c r="H13" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:17" ht="11" customHeight="1">
+    <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
+      <c r="C15" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="30"/>
     </row>
     <row r="16" spans="1:17" ht="11">
       <c r="A16" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="56"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="30"/>
     </row>
     <row r="17" spans="1:17" ht="11">
       <c r="A17" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="56"/>
+        <v>27</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="56"/>
-    </row>
-    <row r="19" spans="1:17" ht="11">
+        <v>30</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="30"/>
+    </row>
+    <row r="19" spans="1:17" ht="11.5" customHeight="1">
       <c r="A19" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" ht="11">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="56"/>
-    </row>
-    <row r="20" spans="1:17" ht="11.5" customHeight="1">
-      <c r="A20" s="6">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:17" ht="11">
+    <row r="21" spans="1:17" ht="10.5" customHeight="1">
       <c r="A21" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:17" ht="10.5" customHeight="1">
+    <row r="22" spans="1:17" ht="11">
       <c r="A22" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="11">
       <c r="A23" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="11">
       <c r="A24" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="11">
       <c r="A25" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" ht="11">
       <c r="A26" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P26" s="16"/>
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" ht="11">
       <c r="A27" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
     </row>
     <row r="28" spans="1:17" ht="11">
       <c r="A28" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" ht="11">
       <c r="A29" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" ht="11">
       <c r="A30" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="1:17" ht="11">
       <c r="A31" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="11">
+    <row r="32" spans="1:17" ht="52.5" customHeight="1">
       <c r="A32" s="6">
-        <v>27</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:17" ht="52.5" customHeight="1">
+    <row r="33" spans="1:17" ht="13.5" customHeight="1">
       <c r="A33" s="6">
-        <v>28</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="19" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="21"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="17"/>
+      <c r="M33" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="21"/>
     </row>
     <row r="34" spans="1:17" ht="13.5" customHeight="1">
       <c r="A34" s="6">
-        <v>29</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="71"/>
-    </row>
-    <row r="35" spans="1:17" ht="13.5" customHeight="1">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+    </row>
+    <row r="35" spans="1:17" ht="11" customHeight="1">
       <c r="A35" s="6">
-        <v>30</v>
-      </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-    </row>
-    <row r="36" spans="1:17" ht="11" customHeight="1">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="1:17" ht="10.5" customHeight="1">
       <c r="A36" s="6">
-        <v>31</v>
-      </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:17" ht="10.5" customHeight="1">
+    <row r="37" spans="1:17" ht="11" customHeight="1">
       <c r="A37" s="6">
-        <v>32</v>
-      </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" ht="11" customHeight="1">
       <c r="A38" s="6">
-        <v>33</v>
-      </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" ht="11" customHeight="1">
       <c r="A39" s="6">
-        <v>34</v>
-      </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" ht="11" customHeight="1">
       <c r="A40" s="6">
-        <v>35</v>
-      </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
     <row r="41" spans="1:17" ht="11" customHeight="1">
       <c r="A41" s="6">
-        <v>36</v>
-      </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P41" s="16"/>
       <c r="Q41" s="17"/>
     </row>
     <row r="42" spans="1:17" ht="11" customHeight="1">
       <c r="A42" s="6">
-        <v>37</v>
-      </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P42" s="16"/>
       <c r="Q42" s="17"/>
     </row>
     <row r="43" spans="1:17" ht="11" customHeight="1">
       <c r="A43" s="6">
-        <v>38</v>
-      </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P43" s="16"/>
       <c r="Q43" s="17"/>
     </row>
     <row r="44" spans="1:17" ht="11" customHeight="1">
       <c r="A44" s="6">
-        <v>39</v>
-      </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P44" s="16"/>
       <c r="Q44" s="17"/>
     </row>
     <row r="45" spans="1:17" ht="11" customHeight="1">
       <c r="A45" s="6">
-        <v>40</v>
-      </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P45" s="16"/>
       <c r="Q45" s="17"/>
     </row>
     <row r="46" spans="1:17" ht="11" customHeight="1">
       <c r="A46" s="6">
-        <v>41</v>
-      </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
     </row>
-    <row r="47" spans="1:17" ht="11" customHeight="1">
+    <row r="47" spans="1:17" ht="21" customHeight="1">
       <c r="A47" s="6">
-        <v>42</v>
-      </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P47" s="16"/>
       <c r="Q47" s="17"/>
     </row>
-    <row r="48" spans="1:17" ht="21" customHeight="1">
+    <row r="48" spans="1:17" ht="28.5" customHeight="1">
       <c r="A48" s="6">
-        <v>43</v>
-      </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P48" s="16"/>
       <c r="Q48" s="17"/>
     </row>
-    <row r="49" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A49" s="6">
-        <v>44</v>
-      </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="17"/>
-    </row>
-    <row r="50" spans="1:17" ht="11.25" customHeight="1">
+    <row r="49" spans="2:13" ht="11.25" customHeight="1">
+      <c r="B49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M49" s="18"/>
+    </row>
+    <row r="50" spans="2:13" ht="11.25" customHeight="1">
       <c r="M50" s="18"/>
     </row>
-    <row r="51" spans="1:17" ht="11.25" customHeight="1">
+    <row r="51" spans="2:13" ht="11.25" customHeight="1">
       <c r="M51" s="18"/>
     </row>
-    <row r="52" spans="1:17" ht="11.25" customHeight="1">
+    <row r="52" spans="2:13" ht="11.25" customHeight="1">
       <c r="M52" s="18"/>
     </row>
-    <row r="53" spans="1:17" ht="11.25" customHeight="1">
+    <row r="53" spans="2:13" ht="11.25" customHeight="1">
       <c r="M53" s="18"/>
     </row>
-    <row r="54" spans="1:17" ht="11.25" customHeight="1">
+    <row r="54" spans="2:13" ht="11.25" customHeight="1">
       <c r="M54" s="18"/>
     </row>
-    <row r="55" spans="1:17" ht="11.25" customHeight="1">
+    <row r="55" spans="2:13" ht="11.25" customHeight="1">
       <c r="M55" s="18"/>
     </row>
-    <row r="56" spans="1:17" ht="11.25" customHeight="1">
+    <row r="56" spans="2:13" ht="11.25" customHeight="1">
       <c r="M56" s="18"/>
     </row>
-    <row r="57" spans="1:17" ht="11.25" customHeight="1">
+    <row r="57" spans="2:13" ht="11.25" customHeight="1">
       <c r="M57" s="18"/>
     </row>
-    <row r="58" spans="1:17" ht="11.25" customHeight="1">
+    <row r="58" spans="2:13" ht="11.25" customHeight="1">
       <c r="M58" s="18"/>
     </row>
-    <row r="59" spans="1:17" ht="11.25" customHeight="1">
+    <row r="59" spans="2:13" ht="11.25" customHeight="1">
       <c r="M59" s="18"/>
     </row>
-    <row r="60" spans="1:17" ht="11.25" customHeight="1">
+    <row r="60" spans="2:13" ht="11.25" customHeight="1">
       <c r="M60" s="18"/>
     </row>
-    <row r="61" spans="1:17" ht="11.25" customHeight="1">
+    <row r="61" spans="2:13" ht="11.25" customHeight="1">
       <c r="M61" s="18"/>
     </row>
-    <row r="62" spans="1:17" ht="11.25" customHeight="1">
-      <c r="M62" s="18"/>
-    </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="B34:B49"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C16:G20"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
+  <mergeCells count="89">
     <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C8:G15"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C20:G31"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H8:L8"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
@@ -3067,25 +3275,62 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H10:L10"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C21:G32"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C15:G19"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="B33:B48"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP008購入(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP008購入(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB9DFE-76E0-4021-92F3-E81265E7F292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B59CA-643F-4C63-9DE4-514279BB0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,158 +1235,158 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1751,31 +1751,32 @@
     <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
-    <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
+    <col min="13" max="14" width="8.453125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.36328125" style="4" customWidth="1"/>
     <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,23 +1791,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1821,50 +1822,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="91.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:17" ht="49.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1873,20 +1874,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1896,32 +1897,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="55"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
       <c r="M6" s="15">
         <v>45511</v>
       </c>
@@ -1931,28 +1932,28 @@
       <c r="O6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="47" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
       <c r="M7" s="15">
         <v>45511</v>
       </c>
@@ -1962,28 +1963,28 @@
       <c r="O7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="19" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="15">
         <v>45511</v>
       </c>
@@ -1993,26 +1994,26 @@
       <c r="O8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="65"/>
     </row>
     <row r="9" spans="1:17" ht="44" customHeight="1">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="37" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="63"/>
       <c r="M9" s="15">
         <v>45511</v>
       </c>
@@ -2022,26 +2023,26 @@
       <c r="O9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="65"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="19" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="15">
         <v>45511</v>
       </c>
@@ -2051,26 +2052,26 @@
       <c r="O10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="30"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="19" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="15">
         <v>45511</v>
       </c>
@@ -2088,18 +2089,18 @@
         <v>8</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="19" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="15">
         <v>45511</v>
       </c>
@@ -2117,18 +2118,18 @@
         <v>9</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="19" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="15">
         <v>45511</v>
       </c>
@@ -2146,18 +2147,18 @@
         <v>10</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="19" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="15">
         <v>45511</v>
       </c>
@@ -2175,20 +2176,20 @@
         <v>11</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="19" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="15">
         <v>45511</v>
       </c>
@@ -2198,26 +2199,26 @@
       <c r="O15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="30"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65"/>
     </row>
     <row r="16" spans="1:17" ht="11">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="19" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="15">
         <v>45511</v>
       </c>
@@ -2227,26 +2228,26 @@
       <c r="O16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="65"/>
     </row>
     <row r="17" spans="1:17" ht="11">
       <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="19" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="15">
         <v>45511</v>
       </c>
@@ -2256,26 +2257,26 @@
       <c r="O17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="65"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="19" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="15">
         <v>45511</v>
       </c>
@@ -2285,26 +2286,26 @@
       <c r="O18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="30"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65"/>
     </row>
     <row r="19" spans="1:17" ht="11.5" customHeight="1">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="19" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="15">
         <v>45511</v>
       </c>
@@ -2322,20 +2323,20 @@
         <v>16</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="19" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="15">
         <v>45511</v>
       </c>
@@ -2353,18 +2354,18 @@
         <v>17</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="19" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="15">
         <v>45511</v>
       </c>
@@ -2382,18 +2383,18 @@
         <v>18</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="19" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="15">
         <v>45511</v>
       </c>
@@ -2411,18 +2412,18 @@
         <v>19</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="19" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="15">
         <v>45511</v>
       </c>
@@ -2440,18 +2441,18 @@
         <v>20</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="19" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="15">
         <v>45511</v>
       </c>
@@ -2469,18 +2470,18 @@
         <v>21</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="19" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="15">
         <v>45511</v>
       </c>
@@ -2498,18 +2499,18 @@
         <v>22</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="19" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
       <c r="M26" s="15">
         <v>45511</v>
       </c>
@@ -2527,18 +2528,18 @@
         <v>23</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="19" t="s">
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="15">
         <v>45511</v>
       </c>
@@ -2556,18 +2557,18 @@
         <v>24</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="19" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
       <c r="M28" s="15">
         <v>45511</v>
       </c>
@@ -2585,18 +2586,18 @@
         <v>25</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="19" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="15">
         <v>45511</v>
       </c>
@@ -2614,18 +2615,18 @@
         <v>26</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="19" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="15">
         <v>45511</v>
       </c>
@@ -2643,18 +2644,18 @@
         <v>27</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="19" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="27"/>
       <c r="M31" s="15">
         <v>45511</v>
       </c>
@@ -2674,20 +2675,20 @@
       <c r="B32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="19" t="s">
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="27"/>
       <c r="M32" s="15">
         <v>45511</v>
       </c>
@@ -2704,23 +2705,23 @@
       <c r="A33" s="6">
         <v>29</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="28" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="68"/>
       <c r="M33" s="15">
         <v>45511</v>
       </c>
@@ -2730,28 +2731,28 @@
       <c r="O33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="21"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="68"/>
     </row>
     <row r="34" spans="1:17" ht="13.5" customHeight="1">
       <c r="A34" s="6">
         <v>30</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
       <c r="M34" s="15">
         <v>45511</v>
       </c>
@@ -2761,28 +2762,28 @@
       <c r="O34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17" ht="11" customHeight="1">
       <c r="A35" s="6">
         <v>31</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="57"/>
+      <c r="C35" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
       <c r="M35" s="15">
         <v>45511</v>
       </c>
@@ -2799,21 +2800,21 @@
       <c r="A36" s="6">
         <v>32</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
       <c r="M36" s="15">
         <v>45511</v>
       </c>
@@ -2830,21 +2831,21 @@
       <c r="A37" s="6">
         <v>33</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="57"/>
+      <c r="C37" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="28" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="21"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="68"/>
       <c r="M37" s="15">
         <v>45511</v>
       </c>
@@ -2861,21 +2862,21 @@
       <c r="A38" s="6">
         <v>34</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="57"/>
+      <c r="C38" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
       <c r="M38" s="15">
         <v>45511</v>
       </c>
@@ -2892,21 +2893,21 @@
       <c r="A39" s="6">
         <v>35</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="57"/>
+      <c r="C39" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
       <c r="M39" s="15">
         <v>45511</v>
       </c>
@@ -2923,21 +2924,21 @@
       <c r="A40" s="6">
         <v>36</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="22" t="s">
+      <c r="B40" s="57"/>
+      <c r="C40" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
       <c r="M40" s="15">
         <v>45511</v>
       </c>
@@ -2954,21 +2955,21 @@
       <c r="A41" s="6">
         <v>37</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="57"/>
+      <c r="C41" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
       <c r="M41" s="15">
         <v>45511</v>
       </c>
@@ -2985,21 +2986,21 @@
       <c r="A42" s="6">
         <v>38</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="22" t="s">
+      <c r="B42" s="57"/>
+      <c r="C42" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
       <c r="M42" s="15">
         <v>45511</v>
       </c>
@@ -3016,21 +3017,21 @@
       <c r="A43" s="6">
         <v>39</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="57"/>
+      <c r="C43" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
       <c r="M43" s="15">
         <v>45511</v>
       </c>
@@ -3047,21 +3048,21 @@
       <c r="A44" s="6">
         <v>40</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="57"/>
+      <c r="C44" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
       <c r="M44" s="15">
         <v>45511</v>
       </c>
@@ -3078,21 +3079,21 @@
       <c r="A45" s="6">
         <v>41</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="57"/>
+      <c r="C45" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="24" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
       <c r="M45" s="15">
         <v>45511</v>
       </c>
@@ -3109,21 +3110,21 @@
       <c r="A46" s="6">
         <v>42</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="22" t="s">
+      <c r="B46" s="57"/>
+      <c r="C46" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
       <c r="M46" s="15">
         <v>45511</v>
       </c>
@@ -3140,21 +3141,21 @@
       <c r="A47" s="6">
         <v>43</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="22" t="s">
+      <c r="B47" s="57"/>
+      <c r="C47" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="19" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="23"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="27"/>
       <c r="M47" s="15">
         <v>45511</v>
       </c>
@@ -3171,21 +3172,21 @@
       <c r="A48" s="6">
         <v>44</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="22" t="s">
+      <c r="B48" s="69"/>
+      <c r="C48" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="19" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="23"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="27"/>
       <c r="M48" s="15">
         <v>45511</v>
       </c>
@@ -3242,63 +3243,22 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C20:G31"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C15:G19"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="B33:B48"/>
     <mergeCell ref="C43:G43"/>
@@ -3315,22 +3275,63 @@
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="H37:L37"/>
     <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C15:G19"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C20:G31"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
